--- a/data/metadata/Informe-01-080101-010108-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-080101-010108-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>50-al-75-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
   </si>
@@ -103,13 +103,13 @@
     <t>iaest-measure:50-al-75-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
   </si>
   <si>
-    <t>iaest-dimension:la-otra-actividad-del-titular-no-esta-relacionada-con-la-explotacion</t>
+    <t>iaest-measure:la-otra-actividad-del-titular-no-esta-relacionada-con-la-explotacion</t>
   </si>
   <si>
     <t>iaest-measure:jornadas</t>
   </si>
   <si>
-    <t>iaest-dimension:el-titular-ha-realizado-actividades-complementarias-como-actividad-secundaria</t>
+    <t>iaest-measure:el-titular-ha-realizado-actividades-complementarias-como-actividad-secundaria</t>
   </si>
   <si>
     <t>iaest-measure:no-consta-si-la-otra-actividad-del-titular-esta-relacionada-con-la-explotacion</t>
@@ -127,13 +127,13 @@
     <t>iaest-measure:75-a-100-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-measure:0-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
   </si>
   <si>
-    <t>sdmx-dimension:refPeriod</t>
+    <t>iaest-measure:menos-de-25-anos</t>
   </si>
   <si>
     <t>iaest-measure:0-a-25-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
@@ -151,13 +151,13 @@
     <t>iaest-measure:no-consta-si-el-titular-ha-realizado-actividades-complementarias</t>
   </si>
   <si>
-    <t>iaest-dimension:la-otra-actividad-del-titular-esta-relacionada-con-la-explotacion</t>
+    <t>iaest-measure:la-otra-actividad-del-titular-esta-relacionada-con-la-explotacion</t>
   </si>
   <si>
     <t>iaest-measure:de-65-anos-o-mas</t>
   </si>
   <si>
-    <t>iaest-dimension:el-titular-no-ha-realizado-actividades-complementarias</t>
+    <t>iaest-measure:el-titular-no-ha-realizado-actividades-complementarias</t>
   </si>
   <si>
     <t>iaest-measure:100-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
@@ -169,15 +169,12 @@
     <t>iaest-measure:el-titular-no-ha-realizado-trabajos-agricolas-o-ganaderos-para-la-explotacion</t>
   </si>
   <si>
-    <t>iaest-dimension:el-titular-ha-realizado-actividades-complementarias-como-actividad-principal</t>
+    <t>iaest-measure:el-titular-ha-realizado-actividades-complementarias-como-actividad-principal</t>
   </si>
   <si>
     <t>iaest-measure:de-35-a-44-anos</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
@@ -187,31 +184,16 @@
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>skos:Concept</t>
   </si>
   <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-la-otra-actividad-del-titular-no-esta-relacionada-con-la-explotacion.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-el-titular-ha-realizado-actividades-complementarias-como-actividad-secundaria.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-menos-de-25-anos.xlsx</t>
-  </si>
-  <si>
     <t>mapping-ccaa-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-la-otra-actividad-del-titular-esta-relacionada-con-la-explotacion.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-el-titular-no-ha-realizado-actividades-complementarias.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-el-titular-ha-realizado-actividades-complementarias-como-actividad-principal.xlsx</t>
   </si>
 </sst>
 </file>
@@ -446,24 +428,24 @@
         <v>53</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>34</v>
@@ -472,87 +454,87 @@
         <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>34</v>
@@ -561,93 +543,75 @@
         <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-080101-010108-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-080101-010108-A-TC-TM-TP.xlsx
@@ -11,189 +11,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
-  <si>
-    <t>50-al-75-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
-  </si>
-  <si>
-    <t>la-otra-actividad-del-titular-no-esta-relacionada-con-la-explotacion</t>
-  </si>
-  <si>
-    <t>jornadas</t>
-  </si>
-  <si>
-    <t>el-titular-ha-realizado-actividades-complementarias-como-actividad-secundaria</t>
-  </si>
-  <si>
-    <t>no-consta-si-la-otra-actividad-del-titular-esta-relacionada-con-la-explotacion</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>de-55-a-64-anos</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>25-a-50-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
-  </si>
-  <si>
-    <t>75-a-100-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>0-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
-  </si>
-  <si>
-    <t>menos-de-25-anos</t>
-  </si>
-  <si>
-    <t>0-a-25-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
-  </si>
-  <si>
-    <t>el-titular-ha-realizado-trabajos-agricolas-o-ganaderos-para-la-explotacion</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>de-25-a-34-anos</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>no-consta-si-el-titular-ha-realizado-actividades-complementarias</t>
-  </si>
-  <si>
-    <t>la-otra-actividad-del-titular-esta-relacionada-con-la-explotacion</t>
-  </si>
-  <si>
-    <t>de-65-anos-o-mas</t>
-  </si>
-  <si>
-    <t>el-titular-no-ha-realizado-actividades-complementarias</t>
-  </si>
-  <si>
-    <t>100-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
-  </si>
-  <si>
-    <t>de-45-a-54-anos</t>
-  </si>
-  <si>
-    <t>el-titular-no-ha-realizado-trabajos-agricolas-o-ganaderos-para-la-explotacion</t>
-  </si>
-  <si>
-    <t>el-titular-ha-realizado-actividades-complementarias-como-actividad-principal</t>
-  </si>
-  <si>
-    <t>de-35-a-44-anos</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>El titular ha realizado actividades complementarias como actividad secundaria</t>
+  </si>
+  <si>
+    <t>De 45 a 54 años</t>
+  </si>
+  <si>
+    <t>De 65 años o más</t>
+  </si>
+  <si>
+    <t>Provincia codigo</t>
+  </si>
+  <si>
+    <t>100% del tiempo anual trabajado por una persona a tiempo completo</t>
+  </si>
+  <si>
+    <t>&gt;=50% al 75% del tiempo anual trabajado por una persona a tiempo completo</t>
+  </si>
+  <si>
+    <t>De 35 a 44 años</t>
+  </si>
+  <si>
+    <t>&gt;=25% a &lt;50% del tiempo anual trabajado por una persona a tiempo completo</t>
+  </si>
+  <si>
+    <t>La otra actividad del titular está relacionada con la explotación</t>
+  </si>
+  <si>
+    <t>No consta si la otra actividad del titular está relacionada con la explotación</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Jornadas</t>
+  </si>
+  <si>
+    <t>Menos de 25 años</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>La otra actividad del titular no está relacionada con la explotación</t>
+  </si>
+  <si>
+    <t>De 55 a 64 años</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>&gt;0% a &lt;25% del tiempo anual trabajado por una persona a tiempo completo</t>
+  </si>
+  <si>
+    <t>No consta si el titular ha realizado actividades complementarias</t>
+  </si>
+  <si>
+    <t>&gt;=75% a &lt;100% del tiempo anual trabajado por una persona a tiempo completo</t>
+  </si>
+  <si>
+    <t>El titular no ha realizado trabajos agrícolas o ganaderos para la explotación</t>
+  </si>
+  <si>
+    <t>Comarca codigo</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>El titular ha realizado trabajos agrícolas o ganaderos para la explotación</t>
+  </si>
+  <si>
+    <t>El titular no ha realizado actividades complementarias</t>
+  </si>
+  <si>
+    <t>De 25 a 34 años</t>
+  </si>
+  <si>
+    <t>0% del tiempo anual trabajado por una persona a tiempo completo</t>
+  </si>
+  <si>
+    <t>El titular ha realizado actividades complementarias como actividad principal</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:el-titular-ha-realizado-actividades-complementarias-como-actividad-secundaria</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-45-a-54-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-65-anos-o-mas</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:100-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
   </si>
   <si>
     <t>iaest-measure:50-al-75-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
   </si>
   <si>
+    <t>iaest-measure:de-35-a-44-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:25-a-50-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
+  </si>
+  <si>
+    <t>iaest-measure:la-otra-actividad-del-titular-esta-relacionada-con-la-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:no-consta-si-la-otra-actividad-del-titular-esta-relacionada-con-la-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:jornadas</t>
+  </si>
+  <si>
+    <t>iaest-measure:menos-de-25-anos</t>
+  </si>
+  <si>
     <t>iaest-measure:la-otra-actividad-del-titular-no-esta-relacionada-con-la-explotacion</t>
   </si>
   <si>
-    <t>iaest-measure:jornadas</t>
-  </si>
-  <si>
-    <t>iaest-measure:el-titular-ha-realizado-actividades-complementarias-como-actividad-secundaria</t>
-  </si>
-  <si>
-    <t>iaest-measure:no-consta-si-la-otra-actividad-del-titular-esta-relacionada-con-la-explotacion</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>iaest-measure:de-55-a-64-anos</t>
   </si>
   <si>
-    <t>iaest-measure:25-a-50-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
+    <t>iaest-measure:0-a-25-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
+  </si>
+  <si>
+    <t>iaest-measure:no-consta-si-el-titular-ha-realizado-actividades-complementarias</t>
   </si>
   <si>
     <t>iaest-measure:75-a-100-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:el-titular-no-ha-realizado-trabajos-agricolas-o-ganaderos-para-la-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:el-titular-ha-realizado-trabajos-agricolas-o-ganaderos-para-la-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:el-titular-no-ha-realizado-actividades-complementarias</t>
+  </si>
+  <si>
+    <t>iaest-measure:de-25-a-34-anos</t>
   </si>
   <si>
     <t>iaest-measure:0-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
   </si>
   <si>
-    <t>iaest-measure:menos-de-25-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:0-a-25-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
-  </si>
-  <si>
-    <t>iaest-measure:el-titular-ha-realizado-trabajos-agricolas-o-ganaderos-para-la-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:de-25-a-34-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:no-consta-si-el-titular-ha-realizado-actividades-complementarias</t>
-  </si>
-  <si>
-    <t>iaest-measure:la-otra-actividad-del-titular-esta-relacionada-con-la-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:de-65-anos-o-mas</t>
-  </si>
-  <si>
-    <t>iaest-measure:el-titular-no-ha-realizado-actividades-complementarias</t>
-  </si>
-  <si>
-    <t>iaest-measure:100-del-tiempo-anual-trabajado-por-una-persona-a-tiempo-completo</t>
-  </si>
-  <si>
-    <t>iaest-measure:de-45-a-54-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:el-titular-no-ha-realizado-trabajos-agricolas-o-ganaderos-para-la-explotacion</t>
-  </si>
-  <si>
     <t>iaest-measure:el-titular-ha-realizado-actividades-complementarias-como-actividad-principal</t>
   </si>
   <si>
-    <t>iaest-measure:de-35-a-44-anos</t>
+    <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
+    <t>URI-Comunidad</t>
   </si>
   <si>
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-comarca</t>
+  </si>
+  <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
   </si>
 </sst>
 </file>
@@ -362,31 +356,31 @@
         <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>42</v>
@@ -395,10 +389,10 @@
         <v>43</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>45</v>
@@ -410,30 +404,30 @@
         <v>47</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
@@ -445,19 +439,19 @@
         <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>54</v>
@@ -466,7 +460,7 @@
         <v>54</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>54</v>
@@ -475,19 +469,19 @@
         <v>54</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>54</v>
@@ -499,10 +493,10 @@
         <v>54</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>54</v>
@@ -517,12 +511,12 @@
         <v>54</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>56</v>
@@ -534,19 +528,19 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>56</v>
@@ -564,35 +558,35 @@
         <v>56</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="Y4" s="1" t="s">
         <v>56</v>
       </c>
@@ -602,16 +596,8 @@
       <c r="AA4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AC4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="Q5" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
